--- a/biology/Zoologie/Bouscarle_caqueteuse/Bouscarle_caqueteuse.xlsx
+++ b/biology/Zoologie/Bouscarle_caqueteuse/Bouscarle_caqueteuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bradypterus baboecala
 La Bouscarle caqueteuse (Bradypterus baboecala) est une espèce d'oiseaux de la famille des Locustellidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve en Afrique du Sud, Angola, Botswana, Burundi, Cameroun, République du Congo, République démocratique du Congo, Éthiopie, Kenya, Malawi, Mozambique, Namibie, Nigeria, Ouganda, Rwanda, Soudan, Swaziland, Tanzanie, Tchad, Togo, Zambie et Zimbabwe.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les marais.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 mai 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 mai 2011) :
 sous-espèce Bradypterus baboecala centralis
 sous-espèce Bradypterus baboecala elgonensis
 Bradypterus baboecala tongensis/transvaalensis</t>
